--- a/crear_cuentas_hub.xlsx
+++ b/crear_cuentas_hub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Dropbox/Documentos/Work/material-complementario/docker/ambiente-desarrollo/jappy.hub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CC0ACA-6B23-E940-A5EE-13F501B9C39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BDE54F-48D2-7A4D-B6D8-BF1FF45452B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="5240" windowWidth="28020" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F39" si="0">LOWER(CONCATENATE(LEFT(C3,1),LEFT(D3,8),LEFT(E3,1)))</f>
+        <f t="shared" ref="F3:F20" si="0">LOWER(CONCATENATE(LEFT(C3,1),LEFT(D3,8),LEFT(E3,1)))</f>
         <v>alumno1</v>
       </c>
       <c r="G3" t="str">
@@ -876,7 +876,7 @@
         <v>alumno2</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G39" si="1">F4</f>
+        <f t="shared" ref="G4:G20" si="1">F4</f>
         <v>alumno2</v>
       </c>
       <c r="H4">
@@ -884,27 +884,27 @@
         <v>2001</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I39" si="2">$I$1</f>
+        <f t="shared" ref="I4:I20" si="2">$I$1</f>
         <v>33</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J39" si="3">PROPER(CONCATENATE(C4," ",D4," ",E4))</f>
+        <f t="shared" ref="J4:J20" si="3">PROPER(CONCATENATE(C4," ",D4," ",E4))</f>
         <v>A Lumno 2</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K39" si="4">CONCATENATE($K$1,F4)</f>
+        <f t="shared" ref="K4:K20" si="4">CONCATENATE($K$1,F4)</f>
         <v>/home/hub_homes/cin214/alumno2</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L39" si="5">$L$1</f>
+        <f t="shared" ref="L4:L20" si="5">$L$1</f>
         <v>/bin/bash</v>
       </c>
       <c r="P4" s="5" t="str">
-        <f t="shared" ref="P4:P37" si="6">CONCATENATE("create:",F4,":",G4,":",H4,":",I4,":",J4,":",K4,":",L4,":",M4,":",N4,":",O4,"::")</f>
+        <f t="shared" ref="P4:P20" si="6">CONCATENATE("create:",F4,":",G4,":",H4,":",I4,":",J4,":",K4,":",L4,":",M4,":",N4,":",O4,"::")</f>
         <v>create:alumno2:alumno2:2001:33:A Lumno 2:/home/hub_homes/cin214/alumno2:/bin/bash:::::</v>
       </c>
       <c r="Q4" s="5" t="str">
-        <f t="shared" ref="Q4:Q36" si="7">CONCATENATE("delete:",F4)</f>
+        <f t="shared" ref="Q4:Q20" si="7">CONCATENATE("delete:",F4)</f>
         <v>delete:alumno2</v>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>alumno3</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H39" si="8">H4+1</f>
+        <f t="shared" ref="H5:H20" si="8">H4+1</f>
         <v>2002</v>
       </c>
       <c r="I5">

--- a/crear_cuentas_hub.xlsx
+++ b/crear_cuentas_hub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Dropbox/Documentos/Work/material-complementario/docker/ambiente-desarrollo/jappy.hub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BDE54F-48D2-7A4D-B6D8-BF1FF45452B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639FBDF2-B8EF-9147-A532-EFE34FEF4560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="5240" windowWidth="28020" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1283,9 +1283,8 @@
         <f t="shared" si="0"/>
         <v>test1</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>test1</v>
+      <c r="G12">
+        <v>123</v>
       </c>
       <c r="H12">
         <f t="shared" si="8"/>
@@ -1309,7 +1308,7 @@
       </c>
       <c r="P12" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>create:test1:test1:2009:33:Te Est 1:/home/hub_homes/cin214/test1:/bin/bash:::::</v>
+        <v>create:test1:123:2009:33:Te Est 1:/home/hub_homes/cin214/test1:/bin/bash:::::</v>
       </c>
       <c r="Q12" s="5" t="str">
         <f t="shared" si="7"/>
@@ -1334,9 +1333,8 @@
         <f t="shared" si="0"/>
         <v>test2</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>test2</v>
+      <c r="G13">
+        <v>123</v>
       </c>
       <c r="H13">
         <f t="shared" si="8"/>
@@ -1360,7 +1358,7 @@
       </c>
       <c r="P13" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>create:test2:test2:2010:33:Te Est 2:/home/hub_homes/cin214/test2:/bin/bash:::::</v>
+        <v>create:test2:123:2010:33:Te Est 2:/home/hub_homes/cin214/test2:/bin/bash:::::</v>
       </c>
       <c r="Q13" s="5" t="str">
         <f t="shared" si="7"/>
@@ -1385,9 +1383,8 @@
         <f t="shared" si="0"/>
         <v>test3</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>test3</v>
+      <c r="G14">
+        <v>123</v>
       </c>
       <c r="H14">
         <f t="shared" si="8"/>
@@ -1411,7 +1408,7 @@
       </c>
       <c r="P14" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>create:test3:test3:2011:33:Te Est 3:/home/hub_homes/cin214/test3:/bin/bash:::::</v>
+        <v>create:test3:123:2011:33:Te Est 3:/home/hub_homes/cin214/test3:/bin/bash:::::</v>
       </c>
       <c r="Q14" s="5" t="str">
         <f t="shared" si="7"/>
@@ -1436,9 +1433,8 @@
         <f t="shared" si="0"/>
         <v>test4</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>test4</v>
+      <c r="G15">
+        <v>123</v>
       </c>
       <c r="H15">
         <f t="shared" si="8"/>
@@ -1462,7 +1458,7 @@
       </c>
       <c r="P15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>create:test4:test4:2012:33:Te Est 4:/home/hub_homes/cin214/test4:/bin/bash:::::</v>
+        <v>create:test4:123:2012:33:Te Est 4:/home/hub_homes/cin214/test4:/bin/bash:::::</v>
       </c>
       <c r="Q15" s="5" t="str">
         <f t="shared" si="7"/>
@@ -1487,9 +1483,8 @@
         <f t="shared" si="0"/>
         <v>test5</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>test5</v>
+      <c r="G16">
+        <v>123</v>
       </c>
       <c r="H16">
         <f t="shared" si="8"/>
@@ -1513,7 +1508,7 @@
       </c>
       <c r="P16" s="5" t="str">
         <f t="shared" ref="P16" si="9">CONCATENATE("create:",F16,":",G16,":",H16,":",I16,":",J16,":",K16,":",L16,":",M16,":",N16,":",O16,"::")</f>
-        <v>create:test5:test5:2013:33:Te Est 5:/home/hub_homes/cin214/test5:/bin/bash:::::</v>
+        <v>create:test5:123:2013:33:Te Est 5:/home/hub_homes/cin214/test5:/bin/bash:::::</v>
       </c>
       <c r="Q16" s="5" t="str">
         <f t="shared" ref="Q16" si="10">CONCATENATE("delete:",F16)</f>
@@ -1538,9 +1533,8 @@
         <f t="shared" si="0"/>
         <v>test6</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>test6</v>
+      <c r="G17">
+        <v>123</v>
       </c>
       <c r="H17">
         <f t="shared" si="8"/>
@@ -1564,7 +1558,7 @@
       </c>
       <c r="P17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>create:test6:test6:2014:33:Te Est 6:/home/hub_homes/cin214/test6:/bin/bash:::::</v>
+        <v>create:test6:123:2014:33:Te Est 6:/home/hub_homes/cin214/test6:/bin/bash:::::</v>
       </c>
       <c r="Q17" s="5" t="str">
         <f t="shared" si="7"/>
@@ -1589,9 +1583,8 @@
         <f t="shared" si="0"/>
         <v>test7</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>test7</v>
+      <c r="G18">
+        <v>123</v>
       </c>
       <c r="H18">
         <f t="shared" si="8"/>
@@ -1615,7 +1608,7 @@
       </c>
       <c r="P18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>create:test7:test7:2015:33:Te Est 7:/home/hub_homes/cin214/test7:/bin/bash:::::</v>
+        <v>create:test7:123:2015:33:Te Est 7:/home/hub_homes/cin214/test7:/bin/bash:::::</v>
       </c>
       <c r="Q18" s="5" t="str">
         <f t="shared" si="7"/>
@@ -1640,9 +1633,8 @@
         <f t="shared" si="0"/>
         <v>test8</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>test8</v>
+      <c r="G19">
+        <v>123</v>
       </c>
       <c r="H19">
         <f t="shared" si="8"/>
@@ -1666,7 +1658,7 @@
       </c>
       <c r="P19" s="5" t="str">
         <f t="shared" ref="P19" si="11">CONCATENATE("create:",F19,":",G19,":",H19,":",I19,":",J19,":",K19,":",L19,":",M19,":",N19,":",O19,"::")</f>
-        <v>create:test8:test8:2016:33:Te Est 8:/home/hub_homes/cin214/test8:/bin/bash:::::</v>
+        <v>create:test8:123:2016:33:Te Est 8:/home/hub_homes/cin214/test8:/bin/bash:::::</v>
       </c>
       <c r="Q19" s="5" t="str">
         <f t="shared" ref="Q19" si="12">CONCATENATE("delete:",F19)</f>
@@ -1691,9 +1683,8 @@
         <f t="shared" si="0"/>
         <v>test9</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>test9</v>
+      <c r="G20">
+        <v>123</v>
       </c>
       <c r="H20">
         <f t="shared" si="8"/>
@@ -1717,7 +1708,7 @@
       </c>
       <c r="P20" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>create:test9:test9:2017:33:Te Est 9:/home/hub_homes/cin214/test9:/bin/bash:::::</v>
+        <v>create:test9:123:2017:33:Te Est 9:/home/hub_homes/cin214/test9:/bin/bash:::::</v>
       </c>
       <c r="Q20" s="5" t="str">
         <f t="shared" si="7"/>

--- a/crear_cuentas_hub.xlsx
+++ b/crear_cuentas_hub.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Dropbox/Documentos/Work/material-complementario/docker/ambiente-desarrollo/jappy.hub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639FBDF2-B8EF-9147-A532-EFE34FEF4560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602DB57D-AA54-C748-9DA7-E04C00A649F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="5240" windowWidth="28020" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja3" sheetId="4" r:id="rId1"/>
+    <sheet name="usuarios" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>homedir</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>Batch File (delete)</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>est</t>
   </si>
   <si>
     <t>Apellido1</t>
@@ -731,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -754,7 +748,7 @@
         <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
@@ -762,13 +756,13 @@
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1">
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
@@ -813,10 +807,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -858,862 +852,157 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>alumno2</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G20" si="1">F4</f>
-        <v>alumno2</v>
-      </c>
-      <c r="H4">
-        <f>H3+1</f>
-        <v>2001</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I20" si="2">$I$1</f>
-        <v>33</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J20" si="3">PROPER(CONCATENATE(C4," ",D4," ",E4))</f>
-        <v>A Lumno 2</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K20" si="4">CONCATENATE($K$1,F4)</f>
-        <v>/home/hub_homes/cin214/alumno2</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L20" si="5">$L$1</f>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P4" s="5" t="str">
-        <f t="shared" ref="P4:P20" si="6">CONCATENATE("create:",F4,":",G4,":",H4,":",I4,":",J4,":",K4,":",L4,":",M4,":",N4,":",O4,"::")</f>
-        <v>create:alumno2:alumno2:2001:33:A Lumno 2:/home/hub_homes/cin214/alumno2:/bin/bash:::::</v>
-      </c>
-      <c r="Q4" s="5" t="str">
-        <f t="shared" ref="Q4:Q20" si="7">CONCATENATE("delete:",F4)</f>
-        <v>delete:alumno2</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>alumno3</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>alumno3</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H20" si="8">H4+1</f>
-        <v>2002</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="3"/>
-        <v>A Lumno 3</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/alumno3</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P5" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:alumno3:alumno3:2002:33:A Lumno 3:/home/hub_homes/cin214/alumno3:/bin/bash:::::</v>
-      </c>
-      <c r="Q5" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:alumno3</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>alumno4</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>alumno4</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="8"/>
-        <v>2003</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>A Lumno 4</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/alumno4</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P6" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:alumno4:alumno4:2003:33:A Lumno 4:/home/hub_homes/cin214/alumno4:/bin/bash:::::</v>
-      </c>
-      <c r="Q6" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:alumno4</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>alumno5</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>alumno5</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="8"/>
-        <v>2004</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>A Lumno 5</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/alumno5</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P7" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:alumno5:alumno5:2004:33:A Lumno 5:/home/hub_homes/cin214/alumno5:/bin/bash:::::</v>
-      </c>
-      <c r="Q7" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:alumno5</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>alumno6</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>alumno6</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="8"/>
-        <v>2005</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="3"/>
-        <v>A Lumno 6</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/alumno6</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P8" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:alumno6:alumno6:2005:33:A Lumno 6:/home/hub_homes/cin214/alumno6:/bin/bash:::::</v>
-      </c>
-      <c r="Q8" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:alumno6</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>alumno7</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>alumno7</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="8"/>
-        <v>2006</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>A Lumno 7</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/alumno7</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P9" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:alumno7:alumno7:2006:33:A Lumno 7:/home/hub_homes/cin214/alumno7:/bin/bash:::::</v>
-      </c>
-      <c r="Q9" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:alumno7</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>alumno8</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>alumno8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="8"/>
-        <v>2007</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>A Lumno 8</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/alumno8</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P10" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:alumno8:alumno8:2007:33:A Lumno 8:/home/hub_homes/cin214/alumno8:/bin/bash:::::</v>
-      </c>
-      <c r="Q10" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:alumno8</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>alumno9</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>alumno9</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="8"/>
-        <v>2008</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>A Lumno 9</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/alumno9</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P11" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:alumno9:alumno9:2008:33:A Lumno 9:/home/hub_homes/cin214/alumno9:/bin/bash:::::</v>
-      </c>
-      <c r="Q11" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:alumno9</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>test1</v>
-      </c>
-      <c r="G12">
-        <v>123</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="8"/>
-        <v>2009</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>Te Est 1</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/test1</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P12" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:test1:123:2009:33:Te Est 1:/home/hub_homes/cin214/test1:/bin/bash:::::</v>
-      </c>
-      <c r="Q12" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:test1</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>test2</v>
-      </c>
-      <c r="G13">
-        <v>123</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="8"/>
-        <v>2010</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="3"/>
-        <v>Te Est 2</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/test2</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P13" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:test2:123:2010:33:Te Est 2:/home/hub_homes/cin214/test2:/bin/bash:::::</v>
-      </c>
-      <c r="Q13" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:test2</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>test3</v>
-      </c>
-      <c r="G14">
-        <v>123</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="8"/>
-        <v>2011</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="3"/>
-        <v>Te Est 3</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/test3</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P14" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:test3:123:2011:33:Te Est 3:/home/hub_homes/cin214/test3:/bin/bash:::::</v>
-      </c>
-      <c r="Q14" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:test3</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>test4</v>
-      </c>
-      <c r="G15">
-        <v>123</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="8"/>
-        <v>2012</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>Te Est 4</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/test4</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P15" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:test4:123:2012:33:Te Est 4:/home/hub_homes/cin214/test4:/bin/bash:::::</v>
-      </c>
-      <c r="Q15" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:test4</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>test5</v>
-      </c>
-      <c r="G16">
-        <v>123</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="8"/>
-        <v>2013</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v>Te Est 5</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/test5</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P16" s="5" t="str">
-        <f t="shared" ref="P16" si="9">CONCATENATE("create:",F16,":",G16,":",H16,":",I16,":",J16,":",K16,":",L16,":",M16,":",N16,":",O16,"::")</f>
-        <v>create:test5:123:2013:33:Te Est 5:/home/hub_homes/cin214/test5:/bin/bash:::::</v>
-      </c>
-      <c r="Q16" s="5" t="str">
-        <f t="shared" ref="Q16" si="10">CONCATENATE("delete:",F16)</f>
-        <v>delete:test5</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>test6</v>
-      </c>
-      <c r="G17">
-        <v>123</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="8"/>
-        <v>2014</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>Te Est 6</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/test6</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P17" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:test6:123:2014:33:Te Est 6:/home/hub_homes/cin214/test6:/bin/bash:::::</v>
-      </c>
-      <c r="Q17" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:test6</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>test7</v>
-      </c>
-      <c r="G18">
-        <v>123</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="8"/>
-        <v>2015</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>Te Est 7</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/test7</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P18" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:test7:123:2015:33:Te Est 7:/home/hub_homes/cin214/test7:/bin/bash:::::</v>
-      </c>
-      <c r="Q18" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:test7</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1">
-        <v>8</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>test8</v>
-      </c>
-      <c r="G19">
-        <v>123</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="8"/>
-        <v>2016</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>Te Est 8</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/test8</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P19" s="5" t="str">
-        <f t="shared" ref="P19" si="11">CONCATENATE("create:",F19,":",G19,":",H19,":",I19,":",J19,":",K19,":",L19,":",M19,":",N19,":",O19,"::")</f>
-        <v>create:test8:123:2016:33:Te Est 8:/home/hub_homes/cin214/test8:/bin/bash:::::</v>
-      </c>
-      <c r="Q19" s="5" t="str">
-        <f t="shared" ref="Q19" si="12">CONCATENATE("delete:",F19)</f>
-        <v>delete:test8</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1">
-        <v>9</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>test9</v>
-      </c>
-      <c r="G20">
-        <v>123</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="8"/>
-        <v>2017</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>Te Est 9</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="4"/>
-        <v>/home/hub_homes/cin214/test9</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="5"/>
-        <v>/bin/bash</v>
-      </c>
-      <c r="P20" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>create:test9:123:2017:33:Te Est 9:/home/hub_homes/cin214/test9:/bin/bash:::::</v>
-      </c>
-      <c r="Q20" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>delete:test9</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2"/>
